--- a/grape_dane/numeryczne.xlsx
+++ b/grape_dane/numeryczne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monwe\Desktop\doktoranckie\artykuł GRAPE\grape_dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4B9EC1-154E-4333-B6A9-B270271807CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE0049A-481A-49DE-B45B-7CC6B8A7CE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{DA63958A-6C41-48B4-883E-C1CC95128C59}"/>
   </bookViews>
@@ -43,28 +43,10 @@
     <t>year</t>
   </si>
   <si>
-    <t>Gini coefficient</t>
-  </si>
-  <si>
     <t>unemployment</t>
   </si>
   <si>
-    <t>GDP pc</t>
-  </si>
-  <si>
-    <t>female workforce</t>
-  </si>
-  <si>
-    <t>tax revenue</t>
-  </si>
-  <si>
-    <t>expected number of years of education</t>
-  </si>
-  <si>
     <t>FDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expected number of years of life </t>
   </si>
   <si>
     <t>workforce</t>
@@ -74,12 +56,6 @@
   </si>
   <si>
     <t>financialization</t>
-  </si>
-  <si>
-    <t>membership of the EU</t>
-  </si>
-  <si>
-    <t>number of years in the EU</t>
   </si>
   <si>
     <t>CIT</t>
@@ -729,6 +705,30 @@
   <si>
     <t>4576000000</t>
   </si>
+  <si>
+    <t>Gini_coefficient</t>
+  </si>
+  <si>
+    <t>GDP_pc</t>
+  </si>
+  <si>
+    <t>female_workforce</t>
+  </si>
+  <si>
+    <t>tax_revenue</t>
+  </si>
+  <si>
+    <t>expected_number_of_years_of_education</t>
+  </si>
+  <si>
+    <t>expected_number_of_years_of_life</t>
+  </si>
+  <si>
+    <t>EU_membership</t>
+  </si>
+  <si>
+    <t>number_of_years_in_the_EU</t>
+  </si>
 </sst>
 </file>
 
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:R477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1350,52 +1350,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.6">
@@ -1536,7 +1536,7 @@
         <v>10.9</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J4" s="17">
         <v>68.2</v>
@@ -1592,7 +1592,7 @@
         <v>10.6</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J5" s="17">
         <v>68.5</v>
@@ -1648,7 +1648,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J6" s="17">
         <v>68.900000000000006</v>
@@ -1704,7 +1704,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J7" s="17">
         <v>69.400000000000006</v>
@@ -1760,7 +1760,7 @@
         <v>10.5</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J8" s="17">
         <v>69.900000000000006</v>
@@ -1872,7 +1872,7 @@
         <v>11.4</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J10" s="17">
         <v>70.900000000000006</v>
@@ -1928,7 +1928,7 @@
         <v>11.2</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J11" s="17">
         <v>71.400000000000006</v>
@@ -1984,7 +1984,7 @@
         <v>10.9</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J12" s="17">
         <v>71.8</v>
@@ -3160,7 +3160,7 @@
         <v>11.8</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J33" s="17">
         <v>71</v>
@@ -3216,7 +3216,7 @@
         <v>12.1</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J34" s="17">
         <v>70.900000000000006</v>
@@ -3272,7 +3272,7 @@
         <v>12.6</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J35" s="17">
         <v>70.900000000000006</v>
@@ -3328,7 +3328,7 @@
         <v>12.7</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J36" s="17">
         <v>71</v>
@@ -4056,7 +4056,7 @@
         <v>14.4</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J49" s="17">
         <v>73.7</v>
@@ -4112,7 +4112,7 @@
         <v>14.5</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J50" s="17">
         <v>73.900000000000006</v>
@@ -4168,7 +4168,7 @@
         <v>14.5</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J51" s="17">
         <v>74.099999999999994</v>
@@ -4224,7 +4224,7 @@
         <v>14.9</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J52" s="17">
         <v>74.3</v>
@@ -4280,7 +4280,7 @@
         <v>15.2</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J53" s="17">
         <v>74.5</v>
@@ -4336,7 +4336,7 @@
         <v>15.1</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J54" s="17">
         <v>74.599999999999994</v>
@@ -4392,7 +4392,7 @@
         <v>14.9</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J55" s="17">
         <v>74.7</v>
@@ -4448,7 +4448,7 @@
         <v>14.6</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J56" s="17">
         <v>74.8</v>
@@ -4504,7 +4504,7 @@
         <v>14.4</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J57" s="27">
         <v>74.900000000000006</v>
@@ -4672,7 +4672,7 @@
         <v>12.4</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J60" s="17">
         <v>69.2</v>
@@ -4728,7 +4728,7 @@
         <v>12.4</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J61" s="17">
         <v>68.7</v>
@@ -4784,7 +4784,7 @@
         <v>12.4</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J62" s="17">
         <v>68.3</v>
@@ -4840,7 +4840,7 @@
         <v>12.8</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J63" s="17">
         <v>67.900000000000006</v>
@@ -4896,7 +4896,7 @@
         <v>12.9</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J64" s="17">
         <v>67.599999999999994</v>
@@ -4952,7 +4952,7 @@
         <v>12.8</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J65" s="17">
         <v>67.400000000000006</v>
@@ -5008,7 +5008,7 @@
         <v>13.1</v>
       </c>
       <c r="I66" s="25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J66" s="17">
         <v>67.400000000000006</v>
@@ -5064,7 +5064,7 @@
         <v>13.3</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J67" s="17">
         <v>67.400000000000006</v>
@@ -5120,7 +5120,7 @@
         <v>13.6</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J68" s="17">
         <v>67.5</v>
@@ -5176,7 +5176,7 @@
         <v>13.9</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J69" s="17">
         <v>67.599999999999994</v>
@@ -5232,7 +5232,7 @@
         <v>14.1</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J70" s="17">
         <v>67.8</v>
@@ -5288,7 +5288,7 @@
         <v>14.4</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J71" s="17">
         <v>68</v>
@@ -5344,7 +5344,7 @@
         <v>14.6</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J72" s="17">
         <v>68.3</v>
@@ -5400,7 +5400,7 @@
         <v>14.9</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J73" s="17">
         <v>68.7</v>
@@ -5456,7 +5456,7 @@
         <v>15.1</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J74" s="17">
         <v>69.099999999999994</v>
@@ -5512,7 +5512,7 @@
         <v>15.4</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J75" s="17">
         <v>69.599999999999994</v>
@@ -5568,7 +5568,7 @@
         <v>15.4</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J76" s="17">
         <v>70.2</v>
@@ -5624,7 +5624,7 @@
         <v>15.5</v>
       </c>
       <c r="I77" s="25" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J77" s="17">
         <v>70.8</v>
@@ -5680,7 +5680,7 @@
         <v>15.5</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J78" s="17">
         <v>71.400000000000006</v>
@@ -5736,7 +5736,7 @@
         <v>15.6</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J79" s="17">
         <v>72.099999999999994</v>
@@ -5792,7 +5792,7 @@
         <v>15.7</v>
       </c>
       <c r="I80" s="25" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J80" s="17">
         <v>72.7</v>
@@ -5848,7 +5848,7 @@
         <v>15.6</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J81" s="17">
         <v>73.2</v>
@@ -5904,7 +5904,7 @@
         <v>15.5</v>
       </c>
       <c r="I82" s="25" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J82" s="17">
         <v>73.7</v>
@@ -5960,7 +5960,7 @@
         <v>15.5</v>
       </c>
       <c r="I83" s="25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J83" s="17">
         <v>74</v>
@@ -6016,7 +6016,7 @@
         <v>15.6</v>
       </c>
       <c r="I84" s="25" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J84" s="17">
         <v>74.3</v>
@@ -6072,7 +6072,7 @@
         <v>15.6</v>
       </c>
       <c r="I85" s="25" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J85" s="17">
         <v>74.599999999999994</v>
@@ -9322,7 +9322,7 @@
         <v>10.8</v>
       </c>
       <c r="I143" s="25" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J143" s="17">
         <v>72.8</v>
@@ -12458,7 +12458,7 @@
         <v>12.3</v>
       </c>
       <c r="I199" s="20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J199" s="17">
         <v>65.7</v>
@@ -12514,7 +12514,7 @@
         <v>12.1</v>
       </c>
       <c r="I200" s="20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J200" s="17">
         <v>65.099999999999994</v>
@@ -12570,7 +12570,7 @@
         <v>12</v>
       </c>
       <c r="I201" s="20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J201" s="17">
         <v>64.5</v>
@@ -12626,7 +12626,7 @@
         <v>12</v>
       </c>
       <c r="I202" s="20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J202" s="17">
         <v>63.9</v>
@@ -12682,7 +12682,7 @@
         <v>12</v>
       </c>
       <c r="I203" s="20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J203" s="17">
         <v>63.5</v>
@@ -12738,7 +12738,7 @@
         <v>12.1</v>
       </c>
       <c r="I204" s="20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J204" s="17">
         <v>63.3</v>
@@ -12794,7 +12794,7 @@
         <v>12.1</v>
       </c>
       <c r="I205" s="20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J205" s="17">
         <v>63.2</v>
@@ -12850,7 +12850,7 @@
         <v>12.1</v>
       </c>
       <c r="I206" s="20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J206" s="17">
         <v>63.2</v>
@@ -12962,7 +12962,7 @@
         <v>12.7</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J208" s="17">
         <v>63.8</v>
@@ -13018,7 +13018,7 @@
         <v>13.1</v>
       </c>
       <c r="I209" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J209" s="17">
         <v>64.2</v>
@@ -13074,7 +13074,7 @@
         <v>13.5</v>
       </c>
       <c r="I210" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J210" s="17">
         <v>64.5</v>
@@ -13130,7 +13130,7 @@
         <v>13.9</v>
       </c>
       <c r="I211" s="20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J211" s="17">
         <v>64.900000000000006</v>
@@ -13186,7 +13186,7 @@
         <v>14.3</v>
       </c>
       <c r="I212" s="20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J212" s="17">
         <v>65.2</v>
@@ -13242,7 +13242,7 @@
         <v>14.6</v>
       </c>
       <c r="I213" s="20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J213" s="17">
         <v>65.5</v>
@@ -13354,7 +13354,7 @@
         <v>14.6</v>
       </c>
       <c r="I215" s="20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J215" s="17">
         <v>66.3</v>
@@ -14026,7 +14026,7 @@
         <v>12.2</v>
       </c>
       <c r="I227" s="25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J227" s="17">
         <v>70.099999999999994</v>
@@ -14194,7 +14194,7 @@
         <v>12</v>
       </c>
       <c r="I230" s="25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J230" s="17">
         <v>69.8</v>
@@ -14250,7 +14250,7 @@
         <v>12.4</v>
       </c>
       <c r="I231" s="25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J231" s="17">
         <v>69.900000000000006</v>
@@ -14306,7 +14306,7 @@
         <v>12.9</v>
       </c>
       <c r="I232" s="25" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J232" s="17">
         <v>70.099999999999994</v>
@@ -14362,7 +14362,7 @@
         <v>13.4</v>
       </c>
       <c r="I233" s="25" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J233" s="17">
         <v>70.400000000000006</v>
@@ -14418,7 +14418,7 @@
         <v>13.9</v>
       </c>
       <c r="I234" s="25" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J234" s="17">
         <v>70.7</v>
@@ -14474,7 +14474,7 @@
         <v>14.4</v>
       </c>
       <c r="I235" s="25" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J235" s="17">
         <v>71</v>
@@ -14530,7 +14530,7 @@
         <v>15</v>
       </c>
       <c r="I236" s="25" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J236" s="17">
         <v>71.2</v>
@@ -15594,7 +15594,7 @@
         <v>12.4</v>
       </c>
       <c r="I255" s="25" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J255" s="17">
         <v>68.099999999999994</v>
@@ -15650,7 +15650,7 @@
         <v>11.9</v>
       </c>
       <c r="I256" s="25" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J256" s="17">
         <v>67.900000000000006</v>
@@ -15706,7 +15706,7 @@
         <v>11.6</v>
       </c>
       <c r="I257" s="25" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J257" s="17">
         <v>67.8</v>
@@ -15762,7 +15762,7 @@
         <v>11.6</v>
       </c>
       <c r="I258" s="25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J258" s="17">
         <v>67.8</v>
@@ -15818,7 +15818,7 @@
         <v>11.9</v>
       </c>
       <c r="I259" s="25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J259" s="17">
         <v>68.099999999999994</v>
@@ -15874,7 +15874,7 @@
         <v>12.3</v>
       </c>
       <c r="I260" s="25" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J260" s="17">
         <v>68.400000000000006</v>
@@ -15930,7 +15930,7 @@
         <v>12.9</v>
       </c>
       <c r="I261" s="25" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J261" s="17">
         <v>68.900000000000006</v>
@@ -15986,7 +15986,7 @@
         <v>13.6</v>
       </c>
       <c r="I262" s="25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J262" s="17">
         <v>69.3</v>
@@ -17162,7 +17162,7 @@
         <v>11.6</v>
       </c>
       <c r="I283" s="20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J283" s="17">
         <v>67.400000000000006</v>
@@ -17218,7 +17218,7 @@
         <v>11.4</v>
       </c>
       <c r="I284" s="20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J284" s="17">
         <v>67.2</v>
@@ -17274,7 +17274,7 @@
         <v>11.2</v>
       </c>
       <c r="I285" s="20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J285" s="17">
         <v>67</v>
@@ -17330,7 +17330,7 @@
         <v>11</v>
       </c>
       <c r="I286" s="20" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J286" s="17">
         <v>66.900000000000006</v>
@@ -17386,7 +17386,7 @@
         <v>10.7</v>
       </c>
       <c r="I287" s="20" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J287" s="17">
         <v>66.8</v>
@@ -17442,7 +17442,7 @@
         <v>10.7</v>
       </c>
       <c r="I288" s="20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J288" s="17">
         <v>66.7</v>
@@ -17498,7 +17498,7 @@
         <v>11.1</v>
       </c>
       <c r="I289" s="20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J289" s="17">
         <v>66.8</v>
@@ -17554,7 +17554,7 @@
         <v>11.4</v>
       </c>
       <c r="I290" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J290" s="17">
         <v>66.900000000000006</v>
@@ -17610,7 +17610,7 @@
         <v>11.4</v>
       </c>
       <c r="I291" s="20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J291" s="17">
         <v>67</v>
@@ -17666,7 +17666,7 @@
         <v>11.3</v>
       </c>
       <c r="I292" s="20" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J292" s="17">
         <v>67.2</v>
@@ -17722,7 +17722,7 @@
         <v>11.5</v>
       </c>
       <c r="I293" s="20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J293" s="17">
         <v>67.400000000000006</v>
@@ -17778,7 +17778,7 @@
         <v>11.7</v>
       </c>
       <c r="I294" s="20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J294" s="17">
         <v>67.5</v>
@@ -17834,7 +17834,7 @@
         <v>11.9</v>
       </c>
       <c r="I295" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J295" s="17">
         <v>67.7</v>
@@ -17890,7 +17890,7 @@
         <v>11.9</v>
       </c>
       <c r="I296" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J296" s="17">
         <v>67.8</v>
@@ -17946,7 +17946,7 @@
         <v>12.1</v>
       </c>
       <c r="I297" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J297" s="17">
         <v>68</v>
@@ -18002,7 +18002,7 @@
         <v>12.1</v>
       </c>
       <c r="I298" s="20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J298" s="17">
         <v>68.3</v>
@@ -18058,7 +18058,7 @@
         <v>12</v>
       </c>
       <c r="I299" s="20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J299" s="17">
         <v>68.7</v>
@@ -18114,7 +18114,7 @@
         <v>11.8</v>
       </c>
       <c r="I300" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J300" s="17">
         <v>69.099999999999994</v>
@@ -18170,7 +18170,7 @@
         <v>11.8</v>
       </c>
       <c r="I301" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J301" s="17">
         <v>69.599999999999994</v>
@@ -18226,7 +18226,7 @@
         <v>11.8</v>
       </c>
       <c r="I302" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J302" s="17">
         <v>70.099999999999994</v>
@@ -18282,7 +18282,7 @@
         <v>11.8</v>
       </c>
       <c r="I303" s="20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J303" s="17">
         <v>70.599999999999994</v>
@@ -18338,7 +18338,7 @@
         <v>11.8</v>
       </c>
       <c r="I304" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J304" s="17">
         <v>71</v>
@@ -18394,7 +18394,7 @@
         <v>11.8</v>
       </c>
       <c r="I305" s="20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J305" s="17">
         <v>71.3</v>
@@ -18450,7 +18450,7 @@
         <v>11.6</v>
       </c>
       <c r="I306" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J306" s="17">
         <v>71.5</v>
@@ -18506,7 +18506,7 @@
         <v>11.6</v>
       </c>
       <c r="I307" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J307" s="17">
         <v>71.599999999999994</v>
@@ -18562,7 +18562,7 @@
         <v>11.6</v>
       </c>
       <c r="I308" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J308" s="17">
         <v>71.7</v>
@@ -18618,7 +18618,7 @@
         <v>11.6</v>
       </c>
       <c r="I309" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J309" s="17">
         <v>71.8</v>
@@ -18786,7 +18786,7 @@
         <v>12.9</v>
       </c>
       <c r="I312" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J312" s="17">
         <v>71.3</v>
@@ -18842,7 +18842,7 @@
         <v>13.1</v>
       </c>
       <c r="I313" s="20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J313" s="17">
         <v>71.5</v>
@@ -18898,7 +18898,7 @@
         <v>13.1</v>
       </c>
       <c r="I314" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J314" s="17">
         <v>71.8</v>
@@ -18954,7 +18954,7 @@
         <v>13.3</v>
       </c>
       <c r="I315" s="20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J315" s="17">
         <v>72.2</v>
@@ -19010,7 +19010,7 @@
         <v>13.8</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J316" s="17">
         <v>72.5</v>
@@ -19066,7 +19066,7 @@
         <v>14.2</v>
       </c>
       <c r="I317" s="20" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J317" s="17">
         <v>72.900000000000006</v>
@@ -19122,7 +19122,7 @@
         <v>14.6</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J318" s="17">
         <v>73.3</v>
@@ -19178,7 +19178,7 @@
         <v>14.7</v>
       </c>
       <c r="I319" s="20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J319" s="17">
         <v>73.7</v>
@@ -19234,7 +19234,7 @@
         <v>15</v>
       </c>
       <c r="I320" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J320" s="17">
         <v>74.099999999999994</v>
@@ -19290,7 +19290,7 @@
         <v>15.3</v>
       </c>
       <c r="I321" s="20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J321" s="17">
         <v>74.400000000000006</v>
@@ -19346,7 +19346,7 @@
         <v>15.5</v>
       </c>
       <c r="I322" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J322" s="17">
         <v>74.599999999999994</v>
@@ -19402,7 +19402,7 @@
         <v>14.8</v>
       </c>
       <c r="I323" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J323" s="17">
         <v>74.900000000000006</v>
@@ -19458,7 +19458,7 @@
         <v>15</v>
       </c>
       <c r="I324" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J324" s="17">
         <v>75.099999999999994</v>
@@ -19514,7 +19514,7 @@
         <v>15</v>
       </c>
       <c r="I325" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J325" s="17">
         <v>75.3</v>
@@ -19570,7 +19570,7 @@
         <v>15</v>
       </c>
       <c r="I326" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J326" s="17">
         <v>75.5</v>
@@ -19626,7 +19626,7 @@
         <v>15</v>
       </c>
       <c r="I327" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J327" s="17">
         <v>75.8</v>
@@ -19682,7 +19682,7 @@
         <v>15.1</v>
       </c>
       <c r="I328" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J328" s="17">
         <v>76</v>
@@ -19738,7 +19738,7 @@
         <v>15.3</v>
       </c>
       <c r="I329" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J329" s="17">
         <v>76.3</v>
@@ -19794,7 +19794,7 @@
         <v>15.2</v>
       </c>
       <c r="I330" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J330" s="17">
         <v>76.599999999999994</v>
@@ -19850,7 +19850,7 @@
         <v>15.3</v>
       </c>
       <c r="I331" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J331" s="17">
         <v>77</v>
@@ -19906,7 +19906,7 @@
         <v>16.3</v>
       </c>
       <c r="I332" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J332" s="17">
         <v>77.3</v>
@@ -19962,7 +19962,7 @@
         <v>16</v>
       </c>
       <c r="I333" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J333" s="17">
         <v>77.599999999999994</v>
@@ -20018,7 +20018,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I334" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J334" s="17">
         <v>77.900000000000006</v>
@@ -20074,7 +20074,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="I335" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J335" s="17">
         <v>78.099999999999994</v>
@@ -20130,7 +20130,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="I336" s="36" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J336" s="27">
         <v>78.3</v>
@@ -20186,7 +20186,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="I337" s="36" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J337" s="27">
         <v>78.5</v>
@@ -20242,7 +20242,7 @@
         <v>11</v>
       </c>
       <c r="I338" s="25" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J338" s="17">
         <v>69.5</v>
@@ -20298,7 +20298,7 @@
         <v>10.5</v>
       </c>
       <c r="I339" s="25" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J339" s="17">
         <v>69.5</v>
@@ -20354,7 +20354,7 @@
         <v>10.3</v>
       </c>
       <c r="I340" s="25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J340" s="17">
         <v>69.5</v>
@@ -20410,7 +20410,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I341" s="25" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J341" s="17">
         <v>69.5</v>
@@ -20466,7 +20466,7 @@
         <v>10.4</v>
       </c>
       <c r="I342" s="25" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J342" s="17">
         <v>69.5</v>
@@ -20522,7 +20522,7 @@
         <v>10.8</v>
       </c>
       <c r="I343" s="25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J343" s="17">
         <v>69.599999999999994</v>
@@ -20578,7 +20578,7 @@
         <v>11</v>
       </c>
       <c r="I344" s="25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J344" s="17">
         <v>69.7</v>
@@ -20634,7 +20634,7 @@
         <v>11.1</v>
       </c>
       <c r="I345" s="25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J345" s="17">
         <v>69.900000000000006</v>
@@ -20690,7 +20690,7 @@
         <v>11.5</v>
       </c>
       <c r="I346" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J346" s="17">
         <v>70.2</v>
@@ -20746,7 +20746,7 @@
         <v>11.7</v>
       </c>
       <c r="I347" s="25" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J347" s="17">
         <v>70.5</v>
@@ -20802,7 +20802,7 @@
         <v>12</v>
       </c>
       <c r="I348" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J348" s="17">
         <v>70.8</v>
@@ -20858,7 +20858,7 @@
         <v>12.5</v>
       </c>
       <c r="I349" s="25" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J349" s="17">
         <v>71.2</v>
@@ -20914,7 +20914,7 @@
         <v>12.9</v>
       </c>
       <c r="I350" s="25" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J350" s="17">
         <v>71.599999999999994</v>
@@ -20970,7 +20970,7 @@
         <v>13.4</v>
       </c>
       <c r="I351" s="25" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J351" s="17">
         <v>71.900000000000006</v>
@@ -21867,7 +21867,7 @@
         <v>12.4</v>
       </c>
       <c r="I367" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J367" s="17">
         <v>67.099999999999994</v>
@@ -21923,7 +21923,7 @@
         <v>12</v>
       </c>
       <c r="I368" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J368" s="17">
         <v>66.599999999999994</v>
@@ -21979,7 +21979,7 @@
         <v>11.8</v>
       </c>
       <c r="I369" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J369" s="17">
         <v>66.3</v>
@@ -22035,7 +22035,7 @@
         <v>11.8</v>
       </c>
       <c r="I370" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J370" s="17">
         <v>66</v>
@@ -22091,7 +22091,7 @@
         <v>11.9</v>
       </c>
       <c r="I371" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J371" s="17">
         <v>65.8</v>
@@ -22147,7 +22147,7 @@
         <v>11.9</v>
       </c>
       <c r="I372" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J372" s="17">
         <v>65.599999999999994</v>
@@ -22203,7 +22203,7 @@
         <v>12</v>
       </c>
       <c r="I373" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J373" s="17">
         <v>65.400000000000006</v>
@@ -22259,7 +22259,7 @@
         <v>12.1</v>
       </c>
       <c r="I374" s="20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J374" s="17">
         <v>65.2</v>
@@ -22315,7 +22315,7 @@
         <v>12.5</v>
       </c>
       <c r="I375" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J375" s="17">
         <v>65.099999999999994</v>
@@ -22371,7 +22371,7 @@
         <v>12.8</v>
       </c>
       <c r="I376" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J376" s="17">
         <v>65</v>
@@ -22427,7 +22427,7 @@
         <v>13.2</v>
       </c>
       <c r="I377" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J377" s="17">
         <v>65</v>
@@ -22474,7 +22474,7 @@
         <v>13521.2389</v>
       </c>
       <c r="F378" s="19" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G378" s="19">
         <v>31.888610719429433</v>
@@ -22483,7 +22483,7 @@
         <v>13.6</v>
       </c>
       <c r="I378" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J378" s="17">
         <v>65.099999999999994</v>
@@ -22539,7 +22539,7 @@
         <v>13.7</v>
       </c>
       <c r="I379" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J379" s="17">
         <v>65.400000000000006</v>
@@ -22595,7 +22595,7 @@
         <v>13.8</v>
       </c>
       <c r="I380" s="20" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J380" s="17">
         <v>65.8</v>
@@ -22651,7 +22651,7 @@
         <v>13.8</v>
       </c>
       <c r="I381" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J381" s="17">
         <v>66.2</v>
@@ -22707,7 +22707,7 @@
         <v>13.9</v>
       </c>
       <c r="I382" s="20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J382" s="17">
         <v>66.8</v>
@@ -22763,7 +22763,7 @@
         <v>14</v>
       </c>
       <c r="I383" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J383" s="17">
         <v>67.400000000000006</v>
@@ -22819,7 +22819,7 @@
         <v>13.7</v>
       </c>
       <c r="I384" s="20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J384" s="17">
         <v>68.099999999999994</v>
@@ -22875,7 +22875,7 @@
         <v>14</v>
       </c>
       <c r="I385" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J385" s="17">
         <v>68.7</v>
@@ -22931,7 +22931,7 @@
         <v>14.3</v>
       </c>
       <c r="I386" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J386" s="17">
         <v>69.3</v>
@@ -22987,7 +22987,7 @@
         <v>14.6</v>
       </c>
       <c r="I387" s="20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="J387" s="17">
         <v>69.900000000000006</v>
@@ -23043,7 +23043,7 @@
         <v>14.6</v>
       </c>
       <c r="I388" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J388" s="17">
         <v>70.5</v>
@@ -23099,7 +23099,7 @@
         <v>14.8</v>
       </c>
       <c r="I389" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J389" s="17">
         <v>71</v>
@@ -23155,7 +23155,7 @@
         <v>14.8</v>
       </c>
       <c r="I390" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J390" s="17">
         <v>71.5</v>
@@ -23211,7 +23211,7 @@
         <v>15.1</v>
       </c>
       <c r="I391" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J391" s="17">
         <v>71.8</v>
@@ -23267,7 +23267,7 @@
         <v>15.2</v>
       </c>
       <c r="I392" s="20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J392" s="17">
         <v>72.099999999999994</v>
@@ -23323,7 +23323,7 @@
         <v>15</v>
       </c>
       <c r="I393" s="36" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J393" s="27">
         <v>72.400000000000006</v>
@@ -23436,7 +23436,7 @@
         <v>12.3</v>
       </c>
       <c r="I395" s="20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="J395" s="17">
         <v>73.7</v>
@@ -23492,7 +23492,7 @@
         <v>12.2</v>
       </c>
       <c r="I396" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J396" s="17">
         <v>73.900000000000006</v>
@@ -23548,7 +23548,7 @@
         <v>12.3</v>
       </c>
       <c r="I397" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J397" s="17">
         <v>74.2</v>
@@ -23604,7 +23604,7 @@
         <v>12.6</v>
       </c>
       <c r="I398" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J398" s="17">
         <v>74.5</v>
@@ -23660,7 +23660,7 @@
         <v>12.8</v>
       </c>
       <c r="I399" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J399" s="17">
         <v>74.8</v>
@@ -23716,7 +23716,7 @@
         <v>13.1</v>
       </c>
       <c r="I400" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J400" s="17">
         <v>75.099999999999994</v>
@@ -23772,7 +23772,7 @@
         <v>13.7</v>
       </c>
       <c r="I401" s="20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J401" s="17">
         <v>75.400000000000006</v>
@@ -23828,7 +23828,7 @@
         <v>14.6</v>
       </c>
       <c r="I402" s="20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J402" s="17">
         <v>75.599999999999994</v>
@@ -23884,7 +23884,7 @@
         <v>14.7</v>
       </c>
       <c r="I403" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J403" s="17">
         <v>75.900000000000006</v>
@@ -23940,7 +23940,7 @@
         <v>15.6</v>
       </c>
       <c r="I404" s="20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J404" s="17">
         <v>76.2</v>
@@ -23996,7 +23996,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I405" s="20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J405" s="17">
         <v>76.5</v>
@@ -24052,7 +24052,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="I406" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J406" s="17">
         <v>76.900000000000006</v>
@@ -24108,7 +24108,7 @@
         <v>16.3</v>
       </c>
       <c r="I407" s="20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J407" s="17">
         <v>77.2</v>
@@ -24164,7 +24164,7 @@
         <v>16.7</v>
       </c>
       <c r="I408" s="20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J408" s="17">
         <v>77.599999999999994</v>
@@ -26576,7 +26576,7 @@
         <v>12.1</v>
       </c>
       <c r="I451" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J451" s="17">
         <v>69</v>
@@ -26632,7 +26632,7 @@
         <v>12</v>
       </c>
       <c r="I452" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J452" s="17">
         <v>68.599999999999994</v>
@@ -26688,7 +26688,7 @@
         <v>11.9</v>
       </c>
       <c r="I453" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J453" s="17">
         <v>68.2</v>
@@ -26744,7 +26744,7 @@
         <v>12.2</v>
       </c>
       <c r="I454" s="20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J454" s="17">
         <v>67.900000000000006</v>
@@ -26800,7 +26800,7 @@
         <v>12.4</v>
       </c>
       <c r="I455" s="20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J455" s="17">
         <v>67.599999999999994</v>
@@ -26856,7 +26856,7 @@
         <v>12.7</v>
       </c>
       <c r="I456" s="20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J456" s="17">
         <v>67.5</v>
@@ -26912,7 +26912,7 @@
         <v>13</v>
       </c>
       <c r="I457" s="20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J457" s="17">
         <v>67.3</v>
@@ -26968,7 +26968,7 @@
         <v>13.1</v>
       </c>
       <c r="I458" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J458" s="17">
         <v>67.3</v>
@@ -27024,7 +27024,7 @@
         <v>13</v>
       </c>
       <c r="I459" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J459" s="17">
         <v>67.3</v>
@@ -27080,7 +27080,7 @@
         <v>13.7</v>
       </c>
       <c r="I460" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J460" s="17">
         <v>67.3</v>
@@ -27136,7 +27136,7 @@
         <v>14.1</v>
       </c>
       <c r="I461" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J461" s="17">
         <v>67.3</v>
@@ -27192,7 +27192,7 @@
         <v>14.4</v>
       </c>
       <c r="I462" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J462" s="17">
         <v>67.3</v>
@@ -27248,7 +27248,7 @@
         <v>14.4</v>
       </c>
       <c r="I463" s="20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J463" s="17">
         <v>67.400000000000006</v>
@@ -27304,7 +27304,7 @@
         <v>14.6</v>
       </c>
       <c r="I464" s="20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J464" s="17">
         <v>67.5</v>
@@ -27360,7 +27360,7 @@
         <v>14.7</v>
       </c>
       <c r="I465" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J465" s="17">
         <v>67.599999999999994</v>
@@ -27416,7 +27416,7 @@
         <v>14.8</v>
       </c>
       <c r="I466" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J466" s="17">
         <v>67.900000000000006</v>
@@ -27472,7 +27472,7 @@
         <v>14.8</v>
       </c>
       <c r="I467" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J467" s="17">
         <v>68.3</v>
@@ -27528,7 +27528,7 @@
         <v>14.8</v>
       </c>
       <c r="I468" s="20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J468" s="17">
         <v>68.8</v>
@@ -27584,7 +27584,7 @@
         <v>14.8</v>
       </c>
       <c r="I469" s="20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J469" s="17">
         <v>69.400000000000006</v>
@@ -27640,7 +27640,7 @@
         <v>14.8</v>
       </c>
       <c r="I470" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J470" s="17">
         <v>69.900000000000006</v>
@@ -27696,7 +27696,7 @@
         <v>14.9</v>
       </c>
       <c r="I471" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="J471" s="17">
         <v>70.5</v>
@@ -27752,7 +27752,7 @@
         <v>14.9</v>
       </c>
       <c r="I472" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J472" s="17">
         <v>70.900000000000006</v>
@@ -27808,7 +27808,7 @@
         <v>15</v>
       </c>
       <c r="I473" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J473" s="17">
         <v>71.3</v>
@@ -27864,7 +27864,7 @@
         <v>14.8</v>
       </c>
       <c r="I474" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J474" s="17">
         <v>71.5</v>
@@ -27920,7 +27920,7 @@
         <v>14.8</v>
       </c>
       <c r="I475" s="20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J475" s="17">
         <v>71.7</v>
@@ -27976,7 +27976,7 @@
         <v>14.9</v>
       </c>
       <c r="I476" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J476" s="17">
         <v>71.8</v>
@@ -28032,7 +28032,7 @@
         <v>14.8</v>
       </c>
       <c r="I477" s="36" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J477" s="27">
         <v>72</v>
